--- a/论文/测试数据.xlsx
+++ b/论文/测试数据.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBD6986-20B8-4B9E-9A63-8151D26AC81B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C247FA9-1611-4934-AF3B-6034CD875020}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测距" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="PID" sheetId="2" r:id="rId3"/>
+    <sheet name="PID" sheetId="3" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">Sheet2!$A$1:$D$260</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">PID!$C$1:$F$115</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -26,14 +28,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{A1A3B7EC-D0E5-4574-B5BA-46F74A9227BE}" keepAlive="1" name="查询 - 串口数据" description="与工作簿中“串口数据”查询的连接。" type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="查询 - 串口数据" description="与工作簿中“串口数据”查询的连接。" type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=串口数据;Extended Properties=&quot;&quot;" command="SELECT * FROM [串口数据]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>参考距离</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,11 +121,26 @@
     <t>右轮转速</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>时间/ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>误差率1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>误差率2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -173,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -183,6 +200,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -223,14 +241,59 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>测距测试折线图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14152752554980849"/>
+          <c:y val="0.17956706992452984"/>
+          <c:w val="0.71718951670260644"/>
+          <c:h val="0.6259241954355993"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -239,6 +302,344 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>测试1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>测距!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>测距!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>198</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-F994-4CB8-940F-7727B37A3DE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>测距!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>测试2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>测距!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>测距!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-F994-4CB8-940F-7727B37A3DE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1095544655"/>
+        <c:axId val="1213526127"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>测距!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>误差率1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -253,19 +654,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -338,69 +728,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>测距!$B$2:$B$21</c:f>
+              <c:f>测距!$D$2:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69</c:v>
+                  <c:v>1.4285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89</c:v>
+                  <c:v>1.1111111111111112</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>98</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>108</c:v>
+                  <c:v>1.8181818181818181</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>118</c:v>
+                  <c:v>1.6666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>128</c:v>
+                  <c:v>1.5384615384615385</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>138</c:v>
+                  <c:v>1.4285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>148</c:v>
+                  <c:v>1.3333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>158</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>168</c:v>
+                  <c:v>1.1764705882352942</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>178</c:v>
+                  <c:v>1.1111111111111112</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>188</c:v>
+                  <c:v>1.0526315789473684</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>198</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -408,20 +798,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4DFA-4A1A-86D7-6FAE9669B848}"/>
+              <c16:uniqueId val="{00000004-F994-4CB8-940F-7727B37A3DE3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>测距!$C$1</c:f>
+              <c:f>测距!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>测试2</c:v>
+                  <c:v>误差率2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -438,17 +828,6 @@
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -521,69 +900,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>测距!$C$2:$C$21</c:f>
+              <c:f>测距!$E$2:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>109</c:v>
+                  <c:v>0.90909090909090906</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>119</c:v>
+                  <c:v>0.83333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>129</c:v>
+                  <c:v>0.76923076923076927</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>139</c:v>
+                  <c:v>0.7142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>149</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>159</c:v>
+                  <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>169</c:v>
+                  <c:v>0.58823529411764708</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>179</c:v>
+                  <c:v>0.55555555555555558</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>189</c:v>
+                  <c:v>0.52631578947368418</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>199</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -591,7 +970,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4DFA-4A1A-86D7-6FAE9669B848}"/>
+              <c16:uniqueId val="{00000006-F994-4CB8-940F-7727B37A3DE3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -605,16 +984,47 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1977182768"/>
-        <c:axId val="1983765280"/>
+        <c:axId val="1235644591"/>
+        <c:axId val="1209508879"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1977182768"/>
+        <c:axId val="1095544655"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>实际距离</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>/cm</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.68213974355506024"/>
+              <c:y val="0.89233062102096972"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -652,18 +1062,18 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1983765280"/>
+        <c:crossAx val="1213526127"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:tickMarkSkip val="2"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1983765280"/>
+        <c:axId val="1213526127"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -681,6 +1091,37 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>测距读数</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>/cm</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0478253319009791E-2"/>
+              <c:y val="0.18086417362659554"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -712,20 +1153,87 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1977182768"/>
+        <c:crossAx val="1095544655"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="20"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
+      <c:valAx>
+        <c:axId val="1209508879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>误差率</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>/%</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.92643657948911728"/>
+              <c:y val="0.16024948979019424"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1235644591"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1235644591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1209508879"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.3611365399568373E-2"/>
+          <c:y val="0.90405124138687309"/>
+          <c:w val="0.67907751904836289"/>
+          <c:h val="7.7563471764650962E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -759,21 +1267,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -806,9 +1299,78 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>PID</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>调试折线图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14188648293963255"/>
+          <c:y val="0.18039370078740158"/>
+          <c:w val="0.82755796150481187"/>
+          <c:h val="0.54685914260717405"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -817,7 +1379,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$37</c:f>
+              <c:f>PID!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -838,9 +1400,357 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>PID!$B$3:$B$115</c:f>
+              <c:numCache>
+                <c:formatCode>0_ </c:formatCode>
+                <c:ptCount val="113"/>
+                <c:pt idx="0">
+                  <c:v>13.888888888888889</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.555555555555557</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.444444444444443</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97.222222222222229</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>111.11111111111111</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>138.88888888888889</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>152.77777777777777</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>166.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>180.55555555555554</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>194.44444444444446</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>208.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>222.22222222222223</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>236.11111111111111</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>263.88888888888891</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>277.77777777777777</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>291.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>305.55555555555554</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>319.44444444444446</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>333.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>347.22222222222223</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>361.11111111111109</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>388.88888888888891</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>402.77777777777777</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>416.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>430.55555555555554</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>444.44444444444446</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>458.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>472.22222222222223</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>486.11111111111109</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>513.88888888888891</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>527.77777777777783</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>541.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>555.55555555555554</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>569.44444444444446</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>583.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>597.22222222222217</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>611.11111111111109</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>638.88888888888891</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>652.77777777777783</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>666.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>680.55555555555554</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>694.44444444444446</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>708.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>722.22222222222217</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>736.11111111111109</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>763.88888888888891</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>777.77777777777783</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>791.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>805.55555555555554</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>819.44444444444446</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>833.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>847.22222222222217</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>861.11111111111109</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>888.88888888888891</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>902.77777777777783</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>916.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>930.55555555555554</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>944.44444444444446</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>958.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>972.22222222222217</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>986.11111111111109</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1013.8888888888889</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1027.7777777777778</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1041.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1055.5555555555557</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1069.4444444444443</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1083.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1097.2222222222222</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1111.1111111111111</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1125</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1138.8888888888889</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1152.7777777777778</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1166.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1180.5555555555557</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1194.4444444444443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1208.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1222.2222222222222</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1236.1111111111111</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1263.8888888888889</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1277.7777777777778</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1291.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1305.5555555555557</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1319.4444444444443</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1333.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1347.2222222222222</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1361.1111111111111</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1375</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1388.8888888888889</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1402.7777777777778</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1416.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1430.5555555555557</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1444.4444444444443</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1458.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1472.2222222222222</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1486.1111111111111</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1513.8888888888889</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1527.7777777777778</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1541.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1555.5555555555557</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1569.4444444444443</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$A$38:$A$150</c:f>
+              <c:f>PID!$C$3:$C$115</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="113"/>
@@ -1189,7 +2099,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-173B-4D03-8B7C-CF7AA0F84394}"/>
+              <c16:uniqueId val="{00000000-0EA4-43D0-B56A-7F2D69F06609}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1198,7 +2108,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$C$37</c:f>
+              <c:f>PID!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1219,9 +2129,357 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>PID!$B$3:$B$115</c:f>
+              <c:numCache>
+                <c:formatCode>0_ </c:formatCode>
+                <c:ptCount val="113"/>
+                <c:pt idx="0">
+                  <c:v>13.888888888888889</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.555555555555557</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.444444444444443</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97.222222222222229</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>111.11111111111111</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>138.88888888888889</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>152.77777777777777</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>166.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>180.55555555555554</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>194.44444444444446</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>208.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>222.22222222222223</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>236.11111111111111</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>263.88888888888891</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>277.77777777777777</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>291.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>305.55555555555554</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>319.44444444444446</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>333.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>347.22222222222223</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>361.11111111111109</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>388.88888888888891</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>402.77777777777777</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>416.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>430.55555555555554</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>444.44444444444446</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>458.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>472.22222222222223</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>486.11111111111109</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>513.88888888888891</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>527.77777777777783</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>541.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>555.55555555555554</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>569.44444444444446</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>583.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>597.22222222222217</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>611.11111111111109</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>638.88888888888891</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>652.77777777777783</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>666.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>680.55555555555554</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>694.44444444444446</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>708.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>722.22222222222217</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>736.11111111111109</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>763.88888888888891</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>777.77777777777783</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>791.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>805.55555555555554</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>819.44444444444446</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>833.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>847.22222222222217</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>861.11111111111109</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>888.88888888888891</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>902.77777777777783</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>916.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>930.55555555555554</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>944.44444444444446</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>958.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>972.22222222222217</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>986.11111111111109</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1013.8888888888889</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1027.7777777777778</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1041.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1055.5555555555557</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1069.4444444444443</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1083.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1097.2222222222222</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1111.1111111111111</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1125</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1138.8888888888889</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1152.7777777777778</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1166.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1180.5555555555557</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1194.4444444444443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1208.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1222.2222222222222</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1236.1111111111111</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1263.8888888888889</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1277.7777777777778</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1291.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1305.5555555555557</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1319.4444444444443</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1333.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1347.2222222222222</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1361.1111111111111</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1375</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1388.8888888888889</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1402.7777777777778</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1416.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1430.5555555555557</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1444.4444444444443</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1458.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1472.2222222222222</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1486.1111111111111</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1513.8888888888889</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1527.7777777777778</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1541.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1555.5555555555557</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1569.4444444444443</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$38:$C$150</c:f>
+              <c:f>PID!$E$3:$E$115</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="113"/>
@@ -1570,7 +2828,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-173B-4D03-8B7C-CF7AA0F84394}"/>
+              <c16:uniqueId val="{00000001-0EA4-43D0-B56A-7F2D69F06609}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1583,16 +2841,85 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1210060208"/>
-        <c:axId val="1210819600"/>
+        <c:axId val="153902607"/>
+        <c:axId val="1206348943"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1210060208"/>
+        <c:axId val="153902607"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>时间</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>/ms</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.84766535433070866"/>
+              <c:y val="0.85914297171186937"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1629,7 +2956,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1210819600"/>
+        <c:crossAx val="1206348943"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1637,7 +2964,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1210819600"/>
+        <c:axId val="1206348943"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1657,6 +2984,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>转速</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.2222222222222223E-2"/>
+              <c:y val="0.13669364246135901"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1688,7 +3078,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1210060208"/>
+        <c:crossAx val="153902607"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1702,6 +3092,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.3333333333333329E-2"/>
+          <c:y val="0.87557815689705432"/>
+          <c:w val="0.4"/>
+          <c:h val="7.8125546806649182E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1733,13 +3133,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1815,550 +3208,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2879,22 +3729,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>547687</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:colOff>323435</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>176211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:colOff>94836</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
+        <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D217618-93B2-4250-A2BE-4290DB80C7F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{242F8DEF-D818-453E-9F3B-DC2D8AB19CCB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2919,23 +3769,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2">
+        <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EF94B15-0501-4FE7-8CF0-5F145CD09FFD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E355D3F-D8C0-4EFC-A977-05E9319260D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2956,8 +3806,21 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{A686CE17-E64F-469E-82EB-5D09585E489D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="5">
     <queryTableFields count="4">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
@@ -2970,8 +3833,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4728D783-AD3F-4CC7-B6E2-35CBAD921555}" name="串口数据" displayName="串口数据" ref="A1:D260" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D260" xr:uid="{2B23E252-3D2A-4A41-8D9B-A4558FD00102}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4728D783-AD3F-4CC7-B6E2-35CBAD921555}" name="串口数据" displayName="串口数据" ref="C1:F115" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="C1:F115" xr:uid="{2B23E252-3D2A-4A41-8D9B-A4558FD00102}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{6D624418-95A7-4823-B2B4-93FB622C3CF4}" uniqueName="1" name="L" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{4FCBB826-446C-424B-9567-B67B2ED7079B}" uniqueName="2" name="L_HEX" queryTableFieldId="2" dataDxfId="1"/>
@@ -3245,15 +4108,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3263,8 +4126,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10</v>
       </c>
@@ -3274,8 +4143,16 @@
       <c r="C2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <f>ABS(B2-A2)*100/A2</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>ABS(C2-A2)*100/A2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>20</v>
       </c>
@@ -3285,8 +4162,16 @@
       <c r="C3">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <f t="shared" ref="D3:D21" si="0">ABS(B3-A3)*100/A3</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E21" si="1">ABS(C3-A3)*100/A3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>30</v>
       </c>
@@ -3296,8 +4181,16 @@
       <c r="C4">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>40</v>
       </c>
@@ -3307,8 +4200,16 @@
       <c r="C5">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>50</v>
       </c>
@@ -3318,8 +4219,16 @@
       <c r="C6">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>60</v>
       </c>
@@ -3329,8 +4238,16 @@
       <c r="C7">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>70</v>
       </c>
@@ -3340,8 +4257,16 @@
       <c r="C8">
         <v>70</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>80</v>
       </c>
@@ -3351,8 +4276,16 @@
       <c r="C9">
         <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>90</v>
       </c>
@@ -3362,8 +4295,16 @@
       <c r="C10">
         <v>90</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>100</v>
       </c>
@@ -3373,8 +4314,16 @@
       <c r="C11">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>110</v>
       </c>
@@ -3384,8 +4333,16 @@
       <c r="C12">
         <v>109</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1.8181818181818181</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>0.90909090909090906</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>120</v>
       </c>
@@ -3395,8 +4352,16 @@
       <c r="C13">
         <v>119</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>130</v>
       </c>
@@ -3406,8 +4371,16 @@
       <c r="C14">
         <v>129</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>1.5384615384615385</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>140</v>
       </c>
@@ -3417,8 +4390,16 @@
       <c r="C15">
         <v>139</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>150</v>
       </c>
@@ -3428,8 +4409,16 @@
       <c r="C16">
         <v>149</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>160</v>
       </c>
@@ -3439,8 +4428,16 @@
       <c r="C17">
         <v>159</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>170</v>
       </c>
@@ -3450,8 +4447,16 @@
       <c r="C18">
         <v>169</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>1.1764705882352942</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0.58823529411764708</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>180</v>
       </c>
@@ -3461,8 +4466,16 @@
       <c r="C19">
         <v>179</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>190</v>
       </c>
@@ -3472,8 +4485,16 @@
       <c r="C20">
         <v>189</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>1.0526315789473684</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>200</v>
       </c>
@@ -3482,6 +4503,14 @@
       </c>
       <c r="C21">
         <v>199</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -3494,2574 +4523,2644 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A62C63-111B-42E6-9391-C86EFEB0F8C5}">
-  <dimension ref="A1:D260"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="A37" activeCellId="1" sqref="C37:C150 A37:A150"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
-    <col min="2" max="4" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="5"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="6" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="2"/>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="2"/>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="2"/>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <f>A3*1000/72</f>
+        <v>13.888888888888889</v>
+      </c>
+      <c r="C3" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>0</v>
       </c>
-      <c r="B38" s="2">
+      <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="C38">
+      <c r="E3">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>0</v>
       </c>
-      <c r="D38" s="3">
+      <c r="F3" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <f t="shared" ref="B4:B67" si="0">A4*1000/72</f>
+        <v>27.777777777777779</v>
+      </c>
+      <c r="C4" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>0</v>
       </c>
-      <c r="B39" s="2">
+      <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="C39">
+      <c r="E4">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>0</v>
       </c>
-      <c r="D39" s="3">
+      <c r="F4" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C5" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>0</v>
       </c>
-      <c r="B40" s="2">
+      <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="C40">
+      <c r="E5">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>0</v>
       </c>
-      <c r="D40" s="3">
+      <c r="F5" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <f t="shared" si="0"/>
+        <v>55.555555555555557</v>
+      </c>
+      <c r="C6" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>0</v>
       </c>
-      <c r="B41" s="2">
+      <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="C41">
+      <c r="E6">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>0</v>
       </c>
-      <c r="D41" s="3">
+      <c r="F6" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <f t="shared" si="0"/>
+        <v>69.444444444444443</v>
+      </c>
+      <c r="C7" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>0</v>
       </c>
-      <c r="B42" s="2">
+      <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="C42">
+      <c r="E7">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>0</v>
       </c>
-      <c r="D42" s="3">
+      <c r="F7" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <f t="shared" si="0"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="C8" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>0</v>
       </c>
-      <c r="B43" s="2">
+      <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="C43">
+      <c r="E8">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>0</v>
       </c>
-      <c r="D43" s="3">
+      <c r="F8" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <f t="shared" si="0"/>
+        <v>97.222222222222229</v>
+      </c>
+      <c r="C9" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>0</v>
       </c>
-      <c r="B44" s="2">
+      <c r="D9" s="2">
         <v>0</v>
       </c>
-      <c r="C44">
+      <c r="E9">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>0</v>
       </c>
-      <c r="D44" s="3">
+      <c r="F9" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <f t="shared" si="0"/>
+        <v>111.11111111111111</v>
+      </c>
+      <c r="C10" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>0</v>
       </c>
-      <c r="B45" s="2">
+      <c r="D10" s="2">
         <v>0</v>
       </c>
-      <c r="C45">
+      <c r="E10">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>0</v>
       </c>
-      <c r="D45" s="3">
+      <c r="F10" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="C11" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>0</v>
       </c>
-      <c r="B46" s="2">
+      <c r="D11" s="2">
         <v>0</v>
       </c>
-      <c r="C46">
+      <c r="E11">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>0</v>
       </c>
-      <c r="D46" s="3">
+      <c r="F11" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5">
+        <f t="shared" si="0"/>
+        <v>138.88888888888889</v>
+      </c>
+      <c r="C12" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>4</v>
       </c>
-      <c r="B47" s="2">
+      <c r="D12" s="2">
         <v>4</v>
       </c>
-      <c r="C47">
+      <c r="E12">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>4</v>
       </c>
-      <c r="D47" s="3">
+      <c r="F12" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5">
+        <f t="shared" si="0"/>
+        <v>152.77777777777777</v>
+      </c>
+      <c r="C13" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>19</v>
       </c>
-      <c r="B48" s="2">
+      <c r="D13" s="2">
         <v>13</v>
       </c>
-      <c r="C48">
+      <c r="E13">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>18</v>
       </c>
-      <c r="D48" s="3">
+      <c r="F13" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5">
+        <f t="shared" si="0"/>
+        <v>166.66666666666666</v>
+      </c>
+      <c r="C14" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>25</v>
       </c>
-      <c r="B49" s="2">
+      <c r="D14" s="2">
         <v>19</v>
       </c>
-      <c r="C49">
+      <c r="E14">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>25</v>
       </c>
-      <c r="D49" s="3">
+      <c r="F14" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5">
+        <f t="shared" si="0"/>
+        <v>180.55555555555554</v>
+      </c>
+      <c r="C15" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>38</v>
       </c>
-      <c r="B50" s="2">
+      <c r="D15" s="2">
         <v>26</v>
       </c>
-      <c r="C50">
+      <c r="E15">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>38</v>
       </c>
-      <c r="D50" s="3">
+      <c r="F15" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5">
+        <f t="shared" si="0"/>
+        <v>194.44444444444446</v>
+      </c>
+      <c r="C16" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>44</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C51">
+      <c r="E16">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>44</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5">
+        <f t="shared" si="0"/>
+        <v>208.33333333333334</v>
+      </c>
+      <c r="C17" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>50</v>
       </c>
-      <c r="B52" s="2">
+      <c r="D17" s="2">
         <v>32</v>
       </c>
-      <c r="C52">
+      <c r="E17">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>51</v>
       </c>
-      <c r="D52" s="3">
+      <c r="F17" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5">
+        <f t="shared" si="0"/>
+        <v>222.22222222222223</v>
+      </c>
+      <c r="C18" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>61</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C53">
+      <c r="E18">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>62</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5">
+        <f t="shared" si="0"/>
+        <v>236.11111111111111</v>
+      </c>
+      <c r="C19" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>65</v>
       </c>
-      <c r="B54" s="2">
+      <c r="D19" s="2">
         <v>41</v>
       </c>
-      <c r="C54">
+      <c r="E19">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>67</v>
       </c>
-      <c r="D54" s="3">
+      <c r="F19" s="3">
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="C20" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>74</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C55">
+      <c r="E20">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>76</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5">
+        <f t="shared" si="0"/>
+        <v>263.88888888888891</v>
+      </c>
+      <c r="C21" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>77</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C56">
+      <c r="E21">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>79</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5">
+        <f t="shared" si="0"/>
+        <v>277.77777777777777</v>
+      </c>
+      <c r="C22" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>84</v>
       </c>
-      <c r="B57" s="2">
+      <c r="D22" s="2">
         <v>54</v>
       </c>
-      <c r="C57">
+      <c r="E22">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>86</v>
       </c>
-      <c r="D57" s="3">
+      <c r="F22" s="3">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5">
+        <f t="shared" si="0"/>
+        <v>291.66666666666669</v>
+      </c>
+      <c r="C23" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>87</v>
       </c>
-      <c r="B58" s="2">
+      <c r="D23" s="2">
         <v>57</v>
       </c>
-      <c r="C58">
+      <c r="E23">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>89</v>
       </c>
-      <c r="D58" s="3">
+      <c r="F23" s="3">
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5">
+        <f t="shared" si="0"/>
+        <v>305.55555555555554</v>
+      </c>
+      <c r="C24" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>88</v>
       </c>
-      <c r="B59" s="2">
+      <c r="D24" s="2">
         <v>58</v>
       </c>
-      <c r="C59">
+      <c r="E24">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>91</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5">
+        <f t="shared" si="0"/>
+        <v>319.44444444444446</v>
+      </c>
+      <c r="C25" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>91</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C60">
+      <c r="E25">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>90</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5">
+        <f t="shared" si="0"/>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="C26" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>87</v>
       </c>
-      <c r="B61" s="2">
+      <c r="D26" s="2">
         <v>57</v>
       </c>
-      <c r="C61">
+      <c r="E26">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>83</v>
       </c>
-      <c r="D61" s="3">
+      <c r="F26" s="3">
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5">
+        <f t="shared" si="0"/>
+        <v>347.22222222222223</v>
+      </c>
+      <c r="C27" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>71</v>
       </c>
-      <c r="B62" s="2">
+      <c r="D27" s="2">
         <v>47</v>
       </c>
-      <c r="C62">
+      <c r="E27">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>66</v>
       </c>
-      <c r="D62" s="3">
+      <c r="F27" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5">
+        <f t="shared" si="0"/>
+        <v>361.11111111111109</v>
+      </c>
+      <c r="C28" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>61</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C63">
+      <c r="E28">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>57</v>
       </c>
-      <c r="D63" s="3">
+      <c r="F28" s="3">
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="5">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+      <c r="C29" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>43</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C64">
+      <c r="E29">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>39</v>
       </c>
-      <c r="D64" s="3">
+      <c r="F29" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="5">
+        <f t="shared" si="0"/>
+        <v>388.88888888888891</v>
+      </c>
+      <c r="C30" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>37</v>
       </c>
-      <c r="B65" s="2">
+      <c r="D30" s="2">
         <v>25</v>
       </c>
-      <c r="C65">
+      <c r="E30">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>33</v>
       </c>
-      <c r="D65" s="3">
+      <c r="F30" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="5">
+        <f t="shared" si="0"/>
+        <v>402.77777777777777</v>
+      </c>
+      <c r="C31" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>30</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C66">
+      <c r="E31">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>30</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="5">
+        <f t="shared" si="0"/>
+        <v>416.66666666666669</v>
+      </c>
+      <c r="C32" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>32</v>
       </c>
-      <c r="B67" s="2">
+      <c r="D32" s="2">
         <v>20</v>
       </c>
-      <c r="C67">
-        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
-        <v>34</v>
-      </c>
-      <c r="D67" s="3">
+      <c r="E32">
+        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+        <v>34</v>
+      </c>
+      <c r="F32" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="5">
+        <f t="shared" si="0"/>
+        <v>430.55555555555554</v>
+      </c>
+      <c r="C33" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>37</v>
       </c>
-      <c r="B68" s="2">
+      <c r="D33" s="2">
         <v>25</v>
       </c>
-      <c r="C68">
+      <c r="E33">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>39</v>
       </c>
-      <c r="D68" s="3">
+      <c r="F33" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="5">
+        <f t="shared" si="0"/>
+        <v>444.44444444444446</v>
+      </c>
+      <c r="C34" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>48</v>
       </c>
-      <c r="B69" s="2">
+      <c r="D34" s="2">
         <v>30</v>
       </c>
-      <c r="C69">
+      <c r="E34">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>50</v>
       </c>
-      <c r="D69" s="3">
+      <c r="F34" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="5">
+        <f t="shared" si="0"/>
+        <v>458.33333333333331</v>
+      </c>
+      <c r="C35" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>53</v>
       </c>
-      <c r="B70" s="2">
+      <c r="D35" s="2">
         <v>35</v>
       </c>
-      <c r="C70">
+      <c r="E35">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>55</v>
       </c>
-      <c r="D70" s="3">
+      <c r="F35" s="3">
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="5">
+        <f t="shared" si="0"/>
+        <v>472.22222222222223</v>
+      </c>
+      <c r="C36" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>60</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C71">
+      <c r="E36">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>62</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="5">
+        <f t="shared" si="0"/>
+        <v>486.11111111111109</v>
+      </c>
+      <c r="C37" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>62</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C72">
+      <c r="E37">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>62</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="5">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="C38" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>61</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C73">
+      <c r="E38">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>60</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="5">
+        <f t="shared" si="0"/>
+        <v>513.88888888888891</v>
+      </c>
+      <c r="C39" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>60</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C74">
+      <c r="E39">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>58</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="5">
+        <f t="shared" si="0"/>
+        <v>527.77777777777783</v>
+      </c>
+      <c r="C40" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>55</v>
       </c>
-      <c r="B75" s="2">
+      <c r="D40" s="2">
         <v>37</v>
       </c>
-      <c r="C75">
+      <c r="E40">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>51</v>
       </c>
-      <c r="D75" s="3">
+      <c r="F40" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="5">
+        <f t="shared" si="0"/>
+        <v>541.66666666666663</v>
+      </c>
+      <c r="C41" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>51</v>
       </c>
-      <c r="B76" s="2">
+      <c r="D41" s="2">
         <v>33</v>
       </c>
-      <c r="C76">
+      <c r="E41">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>50</v>
       </c>
-      <c r="D76" s="3">
+      <c r="F41" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="5">
+        <f t="shared" si="0"/>
+        <v>555.55555555555554</v>
+      </c>
+      <c r="C42" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>49</v>
       </c>
-      <c r="B77" s="2">
+      <c r="D42" s="2">
         <v>31</v>
       </c>
-      <c r="C77">
+      <c r="E42">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>47</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="5">
+        <f t="shared" si="0"/>
+        <v>569.44444444444446</v>
+      </c>
+      <c r="C43" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>46</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C78">
+      <c r="E43">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>48</v>
       </c>
-      <c r="D78" s="3">
+      <c r="F43" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="5">
+        <f t="shared" si="0"/>
+        <v>583.33333333333337</v>
+      </c>
+      <c r="C44" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>47</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C79">
+      <c r="E44">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>47</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="5">
+        <f t="shared" si="0"/>
+        <v>597.22222222222217</v>
+      </c>
+      <c r="C45" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>48</v>
       </c>
-      <c r="B80" s="2">
+      <c r="D45" s="2">
         <v>30</v>
       </c>
-      <c r="C80">
+      <c r="E45">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>49</v>
       </c>
-      <c r="D80" s="3">
+      <c r="F45" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="5">
+        <f t="shared" si="0"/>
+        <v>611.11111111111109</v>
+      </c>
+      <c r="C46" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>50</v>
       </c>
-      <c r="B81" s="2">
+      <c r="D46" s="2">
         <v>32</v>
       </c>
-      <c r="C81">
-        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="D81" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
-        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="B82" s="2">
-        <v>34</v>
-      </c>
-      <c r="C82">
+      <c r="E46">
+        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="F46" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="5">
+        <f t="shared" si="0"/>
+        <v>625</v>
+      </c>
+      <c r="C47" s="1">
+        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="D47" s="2">
+        <v>34</v>
+      </c>
+      <c r="E47">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>54</v>
       </c>
-      <c r="D82" s="3">
+      <c r="F47" s="3">
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" s="5">
+        <f t="shared" si="0"/>
+        <v>638.88888888888891</v>
+      </c>
+      <c r="C48" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>54</v>
       </c>
-      <c r="B83" s="2">
+      <c r="D48" s="2">
         <v>36</v>
       </c>
-      <c r="C83">
+      <c r="E48">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>54</v>
       </c>
-      <c r="D83" s="3">
+      <c r="F48" s="3">
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" s="5">
+        <f t="shared" si="0"/>
+        <v>652.77777777777783</v>
+      </c>
+      <c r="C49" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>54</v>
       </c>
-      <c r="B84" s="2">
+      <c r="D49" s="2">
         <v>36</v>
       </c>
-      <c r="C84">
+      <c r="E49">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>54</v>
       </c>
-      <c r="D84" s="3">
+      <c r="F49" s="3">
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" s="5">
+        <f t="shared" si="0"/>
+        <v>666.66666666666663</v>
+      </c>
+      <c r="C50" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>54</v>
       </c>
-      <c r="B85" s="2">
+      <c r="D50" s="2">
         <v>36</v>
       </c>
-      <c r="C85">
+      <c r="E50">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>54</v>
       </c>
-      <c r="D85" s="3">
+      <c r="F50" s="3">
         <v>36</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="5">
+        <f t="shared" si="0"/>
+        <v>680.55555555555554</v>
+      </c>
+      <c r="C51" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>54</v>
       </c>
-      <c r="B86" s="2">
+      <c r="D51" s="2">
         <v>36</v>
       </c>
-      <c r="C86">
-        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="D86" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
+      <c r="E51">
+        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="F51" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="5">
+        <f t="shared" si="0"/>
+        <v>694.44444444444446</v>
+      </c>
+      <c r="C52" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>53</v>
       </c>
-      <c r="B87" s="2">
+      <c r="D52" s="2">
         <v>35</v>
       </c>
-      <c r="C87">
-        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="D87" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
-        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="B88" s="2">
-        <v>34</v>
-      </c>
-      <c r="C88">
-        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+      <c r="E52">
+        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="F52" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>51</v>
       </c>
-      <c r="D88" s="3">
+      <c r="B53" s="5">
+        <f t="shared" si="0"/>
+        <v>708.33333333333337</v>
+      </c>
+      <c r="C53" s="1">
+        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="D53" s="2">
+        <v>34</v>
+      </c>
+      <c r="E53">
+        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+        <v>51</v>
+      </c>
+      <c r="F53" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="5">
+        <f t="shared" si="0"/>
+        <v>722.22222222222217</v>
+      </c>
+      <c r="C54" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>50</v>
       </c>
-      <c r="B89" s="2">
+      <c r="D54" s="2">
         <v>32</v>
       </c>
-      <c r="C89">
+      <c r="E54">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>50</v>
       </c>
-      <c r="D89" s="3">
+      <c r="F54" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="5">
+        <f t="shared" si="0"/>
+        <v>736.11111111111109</v>
+      </c>
+      <c r="C55" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>51</v>
       </c>
-      <c r="B90" s="2">
+      <c r="D55" s="2">
         <v>33</v>
       </c>
-      <c r="C90">
+      <c r="E55">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>51</v>
       </c>
-      <c r="D90" s="3">
+      <c r="F55" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="5">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+      <c r="C56" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>51</v>
       </c>
-      <c r="B91" s="2">
+      <c r="D56" s="2">
         <v>33</v>
       </c>
-      <c r="C91">
+      <c r="E56">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>51</v>
       </c>
-      <c r="D91" s="3">
+      <c r="F56" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="5">
+        <f t="shared" si="0"/>
+        <v>763.88888888888891</v>
+      </c>
+      <c r="C57" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>50</v>
       </c>
-      <c r="B92" s="2">
+      <c r="D57" s="2">
         <v>32</v>
       </c>
-      <c r="C92">
+      <c r="E57">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>51</v>
       </c>
-      <c r="D92" s="3">
+      <c r="F57" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
-        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="B93" s="2">
-        <v>34</v>
-      </c>
-      <c r="C93">
-        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="D93" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" s="5">
+        <f t="shared" si="0"/>
+        <v>777.77777777777783</v>
+      </c>
+      <c r="C58" s="1">
+        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="D58" s="2">
+        <v>34</v>
+      </c>
+      <c r="E58">
+        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="F58" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="5">
+        <f t="shared" si="0"/>
+        <v>791.66666666666663</v>
+      </c>
+      <c r="C59" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>53</v>
       </c>
-      <c r="B94" s="2">
+      <c r="D59" s="2">
         <v>35</v>
       </c>
-      <c r="C94">
-        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="D94" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
+      <c r="E59">
+        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="F59" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" s="5">
+        <f t="shared" si="0"/>
+        <v>805.55555555555554</v>
+      </c>
+      <c r="C60" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>53</v>
       </c>
-      <c r="B95" s="2">
+      <c r="D60" s="2">
         <v>35</v>
       </c>
-      <c r="C95">
-        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="D95" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
+      <c r="E60">
+        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="F60" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" s="5">
+        <f t="shared" si="0"/>
+        <v>819.44444444444446</v>
+      </c>
+      <c r="C61" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>53</v>
       </c>
-      <c r="B96" s="2">
+      <c r="D61" s="2">
         <v>35</v>
       </c>
-      <c r="C96">
+      <c r="E61">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>53</v>
       </c>
-      <c r="D96" s="3">
+      <c r="F61" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
-        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="B97" s="2">
-        <v>34</v>
-      </c>
-      <c r="C97">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" s="5">
+        <f t="shared" si="0"/>
+        <v>833.33333333333337</v>
+      </c>
+      <c r="C62" s="1">
+        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="D62" s="2">
+        <v>34</v>
+      </c>
+      <c r="E62">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>54</v>
       </c>
-      <c r="D97" s="3">
+      <c r="F62" s="3">
         <v>36</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
-        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="B98" s="2">
-        <v>34</v>
-      </c>
-      <c r="C98">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" s="5">
+        <f t="shared" si="0"/>
+        <v>847.22222222222217</v>
+      </c>
+      <c r="C63" s="1">
+        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="D63" s="2">
+        <v>34</v>
+      </c>
+      <c r="E63">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>51</v>
       </c>
-      <c r="D98" s="3">
+      <c r="F63" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
-        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="B99" s="2">
-        <v>34</v>
-      </c>
-      <c r="C99">
-        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="D99" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
-        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="B100" s="2">
-        <v>34</v>
-      </c>
-      <c r="C100">
-        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="D100" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
-        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="B101" s="2">
-        <v>34</v>
-      </c>
-      <c r="C101">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" s="5">
+        <f t="shared" si="0"/>
+        <v>861.11111111111109</v>
+      </c>
+      <c r="C64" s="1">
+        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="D64" s="2">
+        <v>34</v>
+      </c>
+      <c r="E64">
+        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="F64" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" s="5">
+        <f t="shared" si="0"/>
+        <v>875</v>
+      </c>
+      <c r="C65" s="1">
+        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="D65" s="2">
+        <v>34</v>
+      </c>
+      <c r="E65">
+        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="F65" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" s="5">
+        <f t="shared" si="0"/>
+        <v>888.88888888888891</v>
+      </c>
+      <c r="C66" s="1">
+        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="D66" s="2">
+        <v>34</v>
+      </c>
+      <c r="E66">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>51</v>
       </c>
-      <c r="D101" s="3">
+      <c r="F66" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" s="5">
+        <f t="shared" si="0"/>
+        <v>902.77777777777783</v>
+      </c>
+      <c r="C67" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>51</v>
       </c>
-      <c r="B102" s="2">
+      <c r="D67" s="2">
         <v>33</v>
       </c>
-      <c r="C102">
-        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="D102" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
-        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="B103" s="2">
-        <v>34</v>
-      </c>
-      <c r="C103">
-        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="D103" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
-        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="B104" s="2">
-        <v>34</v>
-      </c>
-      <c r="C104">
-        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="D104" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
-        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="B105" s="2">
-        <v>34</v>
-      </c>
-      <c r="C105">
+      <c r="E67">
+        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="F67" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" s="5">
+        <f t="shared" ref="B68:B115" si="1">A68*1000/72</f>
+        <v>916.66666666666663</v>
+      </c>
+      <c r="C68" s="1">
+        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="D68" s="2">
+        <v>34</v>
+      </c>
+      <c r="E68">
+        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="F68" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" s="5">
+        <f t="shared" si="1"/>
+        <v>930.55555555555554</v>
+      </c>
+      <c r="C69" s="1">
+        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="D69" s="2">
+        <v>34</v>
+      </c>
+      <c r="E69">
+        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="F69" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" s="5">
+        <f t="shared" si="1"/>
+        <v>944.44444444444446</v>
+      </c>
+      <c r="C70" s="1">
+        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="D70" s="2">
+        <v>34</v>
+      </c>
+      <c r="E70">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>53</v>
       </c>
-      <c r="D105" s="3">
+      <c r="F70" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
-        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="B106" s="2">
-        <v>34</v>
-      </c>
-      <c r="C106">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" s="5">
+        <f t="shared" si="1"/>
+        <v>958.33333333333337</v>
+      </c>
+      <c r="C71" s="1">
+        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="D71" s="2">
+        <v>34</v>
+      </c>
+      <c r="E71">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>53</v>
       </c>
-      <c r="D106" s="3">
+      <c r="F71" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="1">
-        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="B107" s="2">
-        <v>34</v>
-      </c>
-      <c r="C107">
-        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="D107" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="1">
-        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="B108" s="2">
-        <v>34</v>
-      </c>
-      <c r="C108">
-        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="D108" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="1">
-        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="B109" s="2">
-        <v>34</v>
-      </c>
-      <c r="C109">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" s="5">
+        <f t="shared" si="1"/>
+        <v>972.22222222222217</v>
+      </c>
+      <c r="C72" s="1">
+        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="D72" s="2">
+        <v>34</v>
+      </c>
+      <c r="E72">
+        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="F72" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" s="5">
+        <f t="shared" si="1"/>
+        <v>986.11111111111109</v>
+      </c>
+      <c r="C73" s="1">
+        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="D73" s="2">
+        <v>34</v>
+      </c>
+      <c r="E73">
+        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="F73" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" s="5">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="C74" s="1">
+        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="D74" s="2">
+        <v>34</v>
+      </c>
+      <c r="E74">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>51</v>
       </c>
-      <c r="D109" s="3">
+      <c r="F74" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="1">
-        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="B110" s="2">
-        <v>34</v>
-      </c>
-      <c r="C110">
-        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="D110" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="1">
-        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="B111" s="2">
-        <v>34</v>
-      </c>
-      <c r="C111">
-        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="D111" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="1">
-        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="B112" s="2">
-        <v>34</v>
-      </c>
-      <c r="C112">
-        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="D112" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="1">
-        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="B113" s="2">
-        <v>34</v>
-      </c>
-      <c r="C113">
-        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="D113" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="1">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" s="5">
+        <f t="shared" si="1"/>
+        <v>1013.8888888888889</v>
+      </c>
+      <c r="C75" s="1">
+        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="D75" s="2">
+        <v>34</v>
+      </c>
+      <c r="E75">
+        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="F75" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" s="5">
+        <f t="shared" si="1"/>
+        <v>1027.7777777777778</v>
+      </c>
+      <c r="C76" s="1">
+        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="D76" s="2">
+        <v>34</v>
+      </c>
+      <c r="E76">
+        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="F76" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" s="5">
+        <f t="shared" si="1"/>
+        <v>1041.6666666666667</v>
+      </c>
+      <c r="C77" s="1">
+        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="D77" s="2">
+        <v>34</v>
+      </c>
+      <c r="E77">
+        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="F77" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" s="5">
+        <f t="shared" si="1"/>
+        <v>1055.5555555555557</v>
+      </c>
+      <c r="C78" s="1">
+        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="D78" s="2">
+        <v>34</v>
+      </c>
+      <c r="E78">
+        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="F78" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" s="5">
+        <f t="shared" si="1"/>
+        <v>1069.4444444444443</v>
+      </c>
+      <c r="C79" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>51</v>
       </c>
-      <c r="B114" s="2">
+      <c r="D79" s="2">
         <v>33</v>
       </c>
-      <c r="C114">
-        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="D114" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="1">
-        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="B115" s="2">
-        <v>34</v>
-      </c>
-      <c r="C115">
+      <c r="E79">
+        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="F79" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" s="5">
+        <f t="shared" si="1"/>
+        <v>1083.3333333333333</v>
+      </c>
+      <c r="C80" s="1">
+        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="D80" s="2">
+        <v>34</v>
+      </c>
+      <c r="E80">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>53</v>
       </c>
-      <c r="D115" s="3">
+      <c r="F80" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="1">
-        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="B116" s="2">
-        <v>34</v>
-      </c>
-      <c r="C116">
-        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="D116" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="1">
-        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="B117" s="2">
-        <v>34</v>
-      </c>
-      <c r="C117">
-        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="D117" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="1">
-        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="B118" s="2">
-        <v>34</v>
-      </c>
-      <c r="C118">
-        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="D118" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="1">
-        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="B119" s="2">
-        <v>34</v>
-      </c>
-      <c r="C119">
-        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="D119" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="1">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" s="5">
+        <f t="shared" si="1"/>
+        <v>1097.2222222222222</v>
+      </c>
+      <c r="C81" s="1">
+        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="D81" s="2">
+        <v>34</v>
+      </c>
+      <c r="E81">
+        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="F81" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" s="5">
+        <f t="shared" si="1"/>
+        <v>1111.1111111111111</v>
+      </c>
+      <c r="C82" s="1">
+        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="D82" s="2">
+        <v>34</v>
+      </c>
+      <c r="E82">
+        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="F82" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" s="5">
+        <f t="shared" si="1"/>
+        <v>1125</v>
+      </c>
+      <c r="C83" s="1">
+        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="D83" s="2">
+        <v>34</v>
+      </c>
+      <c r="E83">
+        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="F83" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" s="5">
+        <f t="shared" si="1"/>
+        <v>1138.8888888888889</v>
+      </c>
+      <c r="C84" s="1">
+        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="D84" s="2">
+        <v>34</v>
+      </c>
+      <c r="E84">
+        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="F84" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" s="5">
+        <f t="shared" si="1"/>
+        <v>1152.7777777777778</v>
+      </c>
+      <c r="C85" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>51</v>
       </c>
-      <c r="B120" s="2">
+      <c r="D85" s="2">
         <v>33</v>
       </c>
-      <c r="C120">
-        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="D120" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="1">
+      <c r="E85">
+        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="F85" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" s="5">
+        <f t="shared" si="1"/>
+        <v>1166.6666666666667</v>
+      </c>
+      <c r="C86" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>53</v>
       </c>
-      <c r="B121" s="2">
+      <c r="D86" s="2">
         <v>35</v>
       </c>
-      <c r="C121">
-        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="D121" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="1">
-        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="B122" s="2">
-        <v>34</v>
-      </c>
-      <c r="C122">
-        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="D122" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="1">
+      <c r="E86">
+        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="F86" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" s="5">
+        <f t="shared" si="1"/>
+        <v>1180.5555555555557</v>
+      </c>
+      <c r="C87" s="1">
+        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="D87" s="2">
+        <v>34</v>
+      </c>
+      <c r="E87">
+        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="F87" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" s="5">
+        <f t="shared" si="1"/>
+        <v>1194.4444444444443</v>
+      </c>
+      <c r="C88" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>51</v>
       </c>
-      <c r="B123" s="2">
+      <c r="D88" s="2">
         <v>33</v>
       </c>
-      <c r="C123">
-        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="D123" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="1">
-        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="B124" s="2">
-        <v>34</v>
-      </c>
-      <c r="C124">
-        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="D124" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="1">
-        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="B125" s="2">
-        <v>34</v>
-      </c>
-      <c r="C125">
+      <c r="E88">
+        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="F88" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" s="5">
+        <f t="shared" si="1"/>
+        <v>1208.3333333333333</v>
+      </c>
+      <c r="C89" s="1">
+        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="D89" s="2">
+        <v>34</v>
+      </c>
+      <c r="E89">
+        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="F89" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" s="5">
+        <f t="shared" si="1"/>
+        <v>1222.2222222222222</v>
+      </c>
+      <c r="C90" s="1">
+        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="D90" s="2">
+        <v>34</v>
+      </c>
+      <c r="E90">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>51</v>
       </c>
-      <c r="D125" s="3">
+      <c r="F90" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="1">
-        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="B126" s="2">
-        <v>34</v>
-      </c>
-      <c r="C126">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" s="5">
+        <f t="shared" si="1"/>
+        <v>1236.1111111111111</v>
+      </c>
+      <c r="C91" s="1">
+        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="D91" s="2">
+        <v>34</v>
+      </c>
+      <c r="E91">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>53</v>
       </c>
-      <c r="D126" s="3">
+      <c r="F91" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="1">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" s="5">
+        <f t="shared" si="1"/>
+        <v>1250</v>
+      </c>
+      <c r="C92" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>53</v>
       </c>
-      <c r="B127" s="2">
+      <c r="D92" s="2">
         <v>35</v>
       </c>
-      <c r="C127">
+      <c r="E92">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>51</v>
       </c>
-      <c r="D127" s="3">
+      <c r="F92" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="1">
-        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="B128" s="2">
-        <v>34</v>
-      </c>
-      <c r="C128">
-        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="D128" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="1">
-        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="B129" s="2">
-        <v>34</v>
-      </c>
-      <c r="C129">
-        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="D129" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="1">
-        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="B130" s="2">
-        <v>34</v>
-      </c>
-      <c r="C130">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" s="5">
+        <f t="shared" si="1"/>
+        <v>1263.8888888888889</v>
+      </c>
+      <c r="C93" s="1">
+        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="D93" s="2">
+        <v>34</v>
+      </c>
+      <c r="E93">
+        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="F93" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" s="5">
+        <f t="shared" si="1"/>
+        <v>1277.7777777777778</v>
+      </c>
+      <c r="C94" s="1">
+        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="D94" s="2">
+        <v>34</v>
+      </c>
+      <c r="E94">
+        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="F94" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" s="5">
+        <f t="shared" si="1"/>
+        <v>1291.6666666666667</v>
+      </c>
+      <c r="C95" s="1">
+        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="D95" s="2">
+        <v>34</v>
+      </c>
+      <c r="E95">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>53</v>
       </c>
-      <c r="D130" s="3">
+      <c r="F95" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="1">
-        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="B131" s="2">
-        <v>34</v>
-      </c>
-      <c r="C131">
-        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="D131" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="1">
-        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="B132" s="2">
-        <v>34</v>
-      </c>
-      <c r="C132">
-        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="D132" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="1">
-        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="B133" s="2">
-        <v>34</v>
-      </c>
-      <c r="C133">
-        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="D133" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="1">
-        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="B134" s="2">
-        <v>34</v>
-      </c>
-      <c r="C134">
-        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="D134" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="1">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" s="5">
+        <f t="shared" si="1"/>
+        <v>1305.5555555555557</v>
+      </c>
+      <c r="C96" s="1">
+        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="D96" s="2">
+        <v>34</v>
+      </c>
+      <c r="E96">
+        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="F96" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" s="5">
+        <f t="shared" si="1"/>
+        <v>1319.4444444444443</v>
+      </c>
+      <c r="C97" s="1">
+        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="D97" s="2">
+        <v>34</v>
+      </c>
+      <c r="E97">
+        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="F97" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" s="5">
+        <f t="shared" si="1"/>
+        <v>1333.3333333333333</v>
+      </c>
+      <c r="C98" s="1">
+        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="D98" s="2">
+        <v>34</v>
+      </c>
+      <c r="E98">
+        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="F98" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" s="5">
+        <f t="shared" si="1"/>
+        <v>1347.2222222222222</v>
+      </c>
+      <c r="C99" s="1">
+        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="D99" s="2">
+        <v>34</v>
+      </c>
+      <c r="E99">
+        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="F99" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" s="5">
+        <f t="shared" si="1"/>
+        <v>1361.1111111111111</v>
+      </c>
+      <c r="C100" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>51</v>
       </c>
-      <c r="B135" s="2">
+      <c r="D100" s="2">
         <v>33</v>
       </c>
-      <c r="C135">
-        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="D135" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="1">
-        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="B136" s="2">
-        <v>34</v>
-      </c>
-      <c r="C136">
+      <c r="E100">
+        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="F100" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" s="5">
+        <f t="shared" si="1"/>
+        <v>1375</v>
+      </c>
+      <c r="C101" s="1">
+        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="D101" s="2">
+        <v>34</v>
+      </c>
+      <c r="E101">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>51</v>
       </c>
-      <c r="D136" s="3">
+      <c r="F101" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" s="1">
-        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="B137" s="2">
-        <v>34</v>
-      </c>
-      <c r="C137">
-        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="D137" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="1">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" s="5">
+        <f t="shared" si="1"/>
+        <v>1388.8888888888889</v>
+      </c>
+      <c r="C102" s="1">
+        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="D102" s="2">
+        <v>34</v>
+      </c>
+      <c r="E102">
+        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="F102" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" s="5">
+        <f t="shared" si="1"/>
+        <v>1402.7777777777778</v>
+      </c>
+      <c r="C103" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>51</v>
       </c>
-      <c r="B138" s="2">
+      <c r="D103" s="2">
         <v>33</v>
       </c>
-      <c r="C138">
+      <c r="E103">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>53</v>
       </c>
-      <c r="D138" s="3">
+      <c r="F103" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="1">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104" s="5">
+        <f t="shared" si="1"/>
+        <v>1416.6666666666667</v>
+      </c>
+      <c r="C104" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>53</v>
       </c>
-      <c r="B139" s="2">
+      <c r="D104" s="2">
         <v>35</v>
       </c>
-      <c r="C139">
-        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="D139" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="1">
-        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="B140" s="2">
-        <v>34</v>
-      </c>
-      <c r="C140">
+      <c r="E104">
+        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="F104" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" s="5">
+        <f t="shared" si="1"/>
+        <v>1430.5555555555557</v>
+      </c>
+      <c r="C105" s="1">
+        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="D105" s="2">
+        <v>34</v>
+      </c>
+      <c r="E105">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>53</v>
       </c>
-      <c r="D140" s="3">
+      <c r="F105" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="1">
-        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="B141" s="2">
-        <v>34</v>
-      </c>
-      <c r="C141">
-        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="D141" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="1">
-        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="B142" s="2">
-        <v>34</v>
-      </c>
-      <c r="C142">
-        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="D142" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="1">
-        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="B143" s="2">
-        <v>34</v>
-      </c>
-      <c r="C143">
-        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="D143" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="1">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" s="5">
+        <f t="shared" si="1"/>
+        <v>1444.4444444444443</v>
+      </c>
+      <c r="C106" s="1">
+        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="D106" s="2">
+        <v>34</v>
+      </c>
+      <c r="E106">
+        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="F106" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" s="5">
+        <f t="shared" si="1"/>
+        <v>1458.3333333333333</v>
+      </c>
+      <c r="C107" s="1">
+        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="D107" s="2">
+        <v>34</v>
+      </c>
+      <c r="E107">
+        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="F107" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" s="5">
+        <f t="shared" si="1"/>
+        <v>1472.2222222222222</v>
+      </c>
+      <c r="C108" s="1">
+        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="D108" s="2">
+        <v>34</v>
+      </c>
+      <c r="E108">
+        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="F108" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" s="5">
+        <f t="shared" si="1"/>
+        <v>1486.1111111111111</v>
+      </c>
+      <c r="C109" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>51</v>
       </c>
-      <c r="B144" s="2">
+      <c r="D109" s="2">
         <v>33</v>
       </c>
-      <c r="C144">
-        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="D144" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="1">
-        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="B145" s="2">
-        <v>34</v>
-      </c>
-      <c r="C145">
+      <c r="E109">
+        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="F109" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110" s="5">
+        <f t="shared" si="1"/>
+        <v>1500</v>
+      </c>
+      <c r="C110" s="1">
+        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="D110" s="2">
+        <v>34</v>
+      </c>
+      <c r="E110">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>51</v>
       </c>
-      <c r="D145" s="3">
+      <c r="F110" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="1">
-        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="B146" s="2">
-        <v>34</v>
-      </c>
-      <c r="C146">
-        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="D146" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="1">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" s="5">
+        <f t="shared" si="1"/>
+        <v>1513.8888888888889</v>
+      </c>
+      <c r="C111" s="1">
+        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="D111" s="2">
+        <v>34</v>
+      </c>
+      <c r="E111">
+        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="F111" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112" s="5">
+        <f t="shared" si="1"/>
+        <v>1527.7777777777778</v>
+      </c>
+      <c r="C112" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>51</v>
       </c>
-      <c r="B147" s="2">
+      <c r="D112" s="2">
         <v>33</v>
       </c>
-      <c r="C147">
-        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="D147" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="1">
-        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="B148" s="2">
-        <v>34</v>
-      </c>
-      <c r="C148">
-        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="D148" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="1">
-        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="B149" s="2">
-        <v>34</v>
-      </c>
-      <c r="C149">
+      <c r="E112">
+        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="F112" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" s="5">
+        <f t="shared" si="1"/>
+        <v>1541.6666666666667</v>
+      </c>
+      <c r="C113" s="1">
+        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="D113" s="2">
+        <v>34</v>
+      </c>
+      <c r="E113">
+        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="F113" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" s="5">
+        <f t="shared" si="1"/>
+        <v>1555.5555555555557</v>
+      </c>
+      <c r="C114" s="1">
+        <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="D114" s="2">
+        <v>34</v>
+      </c>
+      <c r="E114">
         <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
         <v>53</v>
       </c>
-      <c r="D149" s="3">
+      <c r="F114" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" s="1">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" s="5">
+        <f t="shared" si="1"/>
+        <v>1569.4444444444443</v>
+      </c>
+      <c r="C115" s="1">
         <f>HEX2DEC(串口数据[[#This Row],[L_HEX]])</f>
         <v>51</v>
       </c>
-      <c r="B150" s="2">
+      <c r="D115" s="2">
         <v>33</v>
       </c>
-      <c r="C150">
-        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
-        <v>52</v>
-      </c>
-      <c r="D150" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="1"/>
-      <c r="B151" s="2"/>
-      <c r="D151" s="3"/>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="1"/>
-      <c r="B152" s="2"/>
-      <c r="D152" s="3"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="1"/>
-      <c r="B153" s="2"/>
-      <c r="D153" s="3"/>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="1"/>
-      <c r="B154" s="2"/>
-      <c r="D154" s="3"/>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155" s="1"/>
-      <c r="B155" s="2"/>
-      <c r="D155" s="3"/>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="1"/>
-      <c r="B156" s="2"/>
-      <c r="D156" s="3"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="1"/>
-      <c r="B157" s="2"/>
-      <c r="D157" s="3"/>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" s="1"/>
-      <c r="B158" s="2"/>
-      <c r="D158" s="3"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" s="1"/>
-      <c r="B159" s="2"/>
-      <c r="D159" s="3"/>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" s="1"/>
-      <c r="B160" s="2"/>
-      <c r="D160" s="3"/>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" s="1"/>
-      <c r="B161" s="2"/>
-      <c r="D161" s="3"/>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" s="1"/>
-      <c r="B162" s="2"/>
-      <c r="D162" s="3"/>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" s="1"/>
-      <c r="B163" s="2"/>
-      <c r="D163" s="3"/>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" s="1"/>
-      <c r="B164" s="2"/>
-      <c r="D164" s="3"/>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" s="1"/>
-      <c r="B165" s="2"/>
-      <c r="D165" s="3"/>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" s="1"/>
-      <c r="B166" s="2"/>
-      <c r="D166" s="3"/>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" s="1"/>
-      <c r="B167" s="2"/>
-      <c r="D167" s="3"/>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" s="1"/>
-      <c r="B168" s="2"/>
-      <c r="D168" s="3"/>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" s="1"/>
-      <c r="B169" s="2"/>
-      <c r="D169" s="3"/>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" s="1"/>
-      <c r="B170" s="2"/>
-      <c r="D170" s="3"/>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" s="1"/>
-      <c r="B171" s="2"/>
-      <c r="D171" s="3"/>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A172" s="1"/>
-      <c r="B172" s="2"/>
-      <c r="D172" s="3"/>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" s="1"/>
-      <c r="B173" s="2"/>
-      <c r="D173" s="3"/>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" s="1"/>
-      <c r="B174" s="2"/>
-      <c r="D174" s="3"/>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" s="1"/>
-      <c r="B175" s="2"/>
-      <c r="D175" s="3"/>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176" s="1"/>
-      <c r="B176" s="2"/>
-      <c r="D176" s="3"/>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177" s="1"/>
-      <c r="B177" s="2"/>
-      <c r="D177" s="3"/>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" s="1"/>
-      <c r="B178" s="2"/>
-      <c r="D178" s="3"/>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179" s="1"/>
-      <c r="B179" s="2"/>
-      <c r="D179" s="3"/>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180" s="1"/>
-      <c r="B180" s="2"/>
-      <c r="D180" s="3"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181" s="1"/>
-      <c r="B181" s="2"/>
-      <c r="D181" s="3"/>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182" s="1"/>
-      <c r="B182" s="2"/>
-      <c r="D182" s="3"/>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" s="1"/>
-      <c r="B183" s="2"/>
-      <c r="D183" s="3"/>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184" s="1"/>
-      <c r="B184" s="2"/>
-      <c r="D184" s="3"/>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185" s="1"/>
-      <c r="B185" s="2"/>
-      <c r="D185" s="3"/>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A186" s="1"/>
-      <c r="B186" s="2"/>
-      <c r="D186" s="3"/>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="1"/>
-      <c r="B187" s="2"/>
-      <c r="D187" s="3"/>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" s="1"/>
-      <c r="B188" s="2"/>
-      <c r="D188" s="3"/>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="1"/>
-      <c r="B189" s="2"/>
-      <c r="D189" s="3"/>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="1"/>
-      <c r="B190" s="2"/>
-      <c r="D190" s="3"/>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" s="1"/>
-      <c r="B191" s="2"/>
-      <c r="D191" s="3"/>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" s="1"/>
-      <c r="B192" s="2"/>
-      <c r="D192" s="3"/>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="1"/>
-      <c r="B193" s="2"/>
-      <c r="D193" s="3"/>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="1"/>
-      <c r="B194" s="2"/>
-      <c r="D194" s="3"/>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="1"/>
-      <c r="B195" s="2"/>
-      <c r="D195" s="3"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="1"/>
-      <c r="B196" s="2"/>
-      <c r="D196" s="3"/>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A197" s="1"/>
-      <c r="B197" s="2"/>
-      <c r="D197" s="3"/>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="1"/>
-      <c r="B198" s="2"/>
-      <c r="D198" s="3"/>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="1"/>
-      <c r="B199" s="2"/>
-      <c r="D199" s="3"/>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="1"/>
-      <c r="B200" s="2"/>
-      <c r="D200" s="3"/>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="1"/>
-      <c r="B201" s="2"/>
-      <c r="D201" s="3"/>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="1"/>
-      <c r="B202" s="2"/>
-      <c r="D202" s="3"/>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="1"/>
-      <c r="B203" s="2"/>
-      <c r="D203" s="3"/>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" s="1"/>
-      <c r="B204" s="2"/>
-      <c r="D204" s="3"/>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="1"/>
-      <c r="B205" s="2"/>
-      <c r="D205" s="3"/>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="1"/>
-      <c r="B206" s="2"/>
-      <c r="D206" s="3"/>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" s="1"/>
-      <c r="B207" s="2"/>
-      <c r="D207" s="3"/>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A208" s="1"/>
-      <c r="B208" s="2"/>
-      <c r="D208" s="3"/>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" s="1"/>
-      <c r="B209" s="2"/>
-      <c r="D209" s="3"/>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210" s="1"/>
-      <c r="B210" s="2"/>
-      <c r="D210" s="3"/>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" s="1"/>
-      <c r="B211" s="2"/>
-      <c r="D211" s="3"/>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212" s="1"/>
-      <c r="B212" s="2"/>
-      <c r="D212" s="3"/>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213" s="1"/>
-      <c r="B213" s="2"/>
-      <c r="D213" s="3"/>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214" s="1"/>
-      <c r="B214" s="2"/>
-      <c r="D214" s="3"/>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215" s="1"/>
-      <c r="B215" s="2"/>
-      <c r="D215" s="3"/>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" s="1"/>
-      <c r="B216" s="2"/>
-      <c r="D216" s="3"/>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217" s="1"/>
-      <c r="B217" s="2"/>
-      <c r="D217" s="3"/>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" s="1"/>
-      <c r="B218" s="2"/>
-      <c r="D218" s="3"/>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A219" s="1"/>
-      <c r="B219" s="2"/>
-      <c r="D219" s="3"/>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" s="1"/>
-      <c r="B220" s="2"/>
-      <c r="D220" s="3"/>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="1"/>
-      <c r="B221" s="2"/>
-      <c r="D221" s="3"/>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222" s="1"/>
-      <c r="B222" s="2"/>
-      <c r="D222" s="3"/>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" s="1"/>
-      <c r="B223" s="2"/>
-      <c r="D223" s="3"/>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" s="1"/>
-      <c r="B224" s="2"/>
-      <c r="D224" s="3"/>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" s="1"/>
-      <c r="B225" s="2"/>
-      <c r="D225" s="3"/>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" s="1"/>
-      <c r="B226" s="2"/>
-      <c r="D226" s="3"/>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" s="1"/>
-      <c r="B227" s="2"/>
-      <c r="D227" s="3"/>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" s="1"/>
-      <c r="B228" s="2"/>
-      <c r="D228" s="3"/>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" s="1"/>
-      <c r="B229" s="2"/>
-      <c r="D229" s="3"/>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A230" s="1"/>
-      <c r="B230" s="2"/>
-      <c r="D230" s="3"/>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" s="1"/>
-      <c r="B231" s="2"/>
-      <c r="D231" s="3"/>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" s="1"/>
-      <c r="B232" s="2"/>
-      <c r="D232" s="3"/>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" s="1"/>
-      <c r="B233" s="2"/>
-      <c r="D233" s="3"/>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" s="1"/>
-      <c r="B234" s="2"/>
-      <c r="D234" s="3"/>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" s="1"/>
-      <c r="B235" s="2"/>
-      <c r="D235" s="3"/>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" s="1"/>
-      <c r="B236" s="2"/>
-      <c r="D236" s="3"/>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237" s="1"/>
-      <c r="B237" s="2"/>
-      <c r="D237" s="3"/>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" s="1"/>
-      <c r="B238" s="2"/>
-      <c r="D238" s="3"/>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" s="1"/>
-      <c r="B239" s="2"/>
-      <c r="D239" s="3"/>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" s="1"/>
-      <c r="B240" s="2"/>
-      <c r="D240" s="3"/>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" s="1"/>
-      <c r="B241" s="2"/>
-      <c r="D241" s="3"/>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" s="1"/>
-      <c r="B242" s="2"/>
-      <c r="D242" s="3"/>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A243" s="1"/>
-      <c r="B243" s="2"/>
-      <c r="D243" s="3"/>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244" s="1"/>
-      <c r="B244" s="2"/>
-      <c r="D244" s="3"/>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" s="1"/>
-      <c r="B245" s="2"/>
-      <c r="D245" s="3"/>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246" s="1"/>
-      <c r="B246" s="2"/>
-      <c r="D246" s="3"/>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247" s="1"/>
-      <c r="B247" s="2"/>
-      <c r="D247" s="3"/>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A248" s="1"/>
-      <c r="B248" s="2"/>
-      <c r="D248" s="3"/>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A249" s="1"/>
-      <c r="B249" s="2"/>
-      <c r="D249" s="3"/>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A250" s="1"/>
-      <c r="B250" s="2"/>
-      <c r="D250" s="3"/>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A251" s="1"/>
-      <c r="B251" s="2"/>
-      <c r="D251" s="3"/>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A252" s="1"/>
-      <c r="B252" s="2"/>
-      <c r="D252" s="3"/>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A253" s="1"/>
-      <c r="B253" s="2"/>
-      <c r="D253" s="3"/>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A254" s="1"/>
-      <c r="B254" s="2"/>
-      <c r="D254" s="3"/>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A255" s="1"/>
-      <c r="B255" s="2"/>
-      <c r="D255" s="3"/>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A256" s="1"/>
-      <c r="B256" s="2"/>
-      <c r="D256" s="3"/>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257" s="1"/>
-      <c r="B257" s="2"/>
-      <c r="D257" s="3"/>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" s="1"/>
-      <c r="B258" s="2"/>
-      <c r="D258" s="3"/>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259" s="1"/>
-      <c r="B259" s="2"/>
-      <c r="D259" s="3"/>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A260" s="1"/>
-      <c r="B260" s="2"/>
-      <c r="D260" s="3"/>
+      <c r="E115">
+        <f>HEX2DEC(串口数据[[#This Row],[R_HEX]])</f>
+        <v>52</v>
+      </c>
+      <c r="F115" s="3">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6071,19 +7170,6 @@
   <tableParts count="1">
     <tablePart r:id="rId3"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A6BE78-6B94-4231-A06B-FE15146E799D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/论文/测试数据.xlsx
+++ b/论文/测试数据.xlsx
@@ -3,19 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C247FA9-1611-4934-AF3B-6034CD875020}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA3C700-5D07-4F18-B1FC-2A7C46FC0F3E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测距" sheetId="1" r:id="rId1"/>
-    <sheet name="PID" sheetId="3" r:id="rId2"/>
+    <sheet name="避障调速" sheetId="4" r:id="rId2"/>
+    <sheet name="PID" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">PID!$C$1:$F$115</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">PID!$C$1:$F$115</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>参考距离</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,6 +131,14 @@
     <t>误差率2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比例系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -190,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -201,6 +207,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1216,6 +1223,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1209508879"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1286,6 +1294,463 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN"/>
+              <a:t>避障变速比例系数</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>避障调速!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>比例系数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>避障调速!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>避障调速!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FB8A-42C4-BA59-97E35D922D6E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2039388896"/>
+        <c:axId val="2038416576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2039388896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>障碍物距离</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2038416576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2038416576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>设定速率输出比例系数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2039388896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -3208,7 +3673,526 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3769,6 +4753,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>528637</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>300037</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{425CE133-B492-435F-9A59-EF5AE0531BCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -3804,19 +4829,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4110,7 +5122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -4522,6 +5534,75 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EFE00AD-2BC6-4C8F-A0A3-5A9CDA04E1FF}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>60</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A62C63-111B-42E6-9391-C86EFEB0F8C5}">
   <dimension ref="A1:F115"/>
   <sheetViews>
